--- a/SG/wc_template_SG_v3.xlsx
+++ b/SG/wc_template_SG_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\SG\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2BAD6C-32E4-4B74-9524-2B043DDF60F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EA80D2-3EA2-4483-A37F-C68B937B04EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="17070" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -546,7 +546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -922,9 +922,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -935,6 +932,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1611,7 +1617,7 @@
         <v>#N/A</v>
       </c>
       <c r="P4" s="72" t="e">
-        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q4" s="94"/>
@@ -1671,7 +1677,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN4" s="95" t="str">
-        <f>IFERROR(AR4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AN4:AN24" si="3">IFERROR(AR4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AO4" s="72" t="e">
@@ -1707,11 +1713,11 @@
         <v>n.a.</v>
       </c>
       <c r="AW4" s="75" t="str">
-        <f t="shared" ref="AW4:AW14" si="3">IFERROR(-AS4+AV4, "n.a.")</f>
+        <f t="shared" ref="AW4:AW14" si="4">IFERROR(-AS4+AV4, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX4" s="95" t="str">
-        <f>IFERROR(BB4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AX4:AX24" si="5">IFERROR(BB4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AY4" s="72" t="e">
@@ -1766,7 +1772,7 @@
         <v>#N/A</v>
       </c>
       <c r="P5" s="72" t="e">
-        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q5" s="94"/>
@@ -1782,7 +1788,7 @@
       <c r="AA5" s="94"/>
       <c r="AB5" s="94"/>
       <c r="AC5" s="73" t="str">
-        <f t="shared" ref="AC5:AC24" si="4">IFERROR(AI5-AS5, "")</f>
+        <f t="shared" ref="AC5:AC24" si="6">IFERROR(AI5-AS5, "")</f>
         <v/>
       </c>
       <c r="AD5" s="80" t="str">
@@ -1802,7 +1808,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH5" s="115" t="str">
-        <f t="shared" ref="AH5:AH24" si="5">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
+        <f t="shared" ref="AH5:AH24" si="7">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AI5" s="129" t="str">
@@ -1810,15 +1816,15 @@
         <v/>
       </c>
       <c r="AJ5" s="74" t="str">
-        <f t="shared" ref="AJ5:AJ24" si="6">IFERROR(AO5/J5*30,"n.a.")</f>
+        <f t="shared" ref="AJ5:AJ24" si="8">IFERROR(AO5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AK5" s="77" t="str">
-        <f t="shared" ref="AK5:AK24" si="7">IFERROR(AP5/K5*30,"n.a.")</f>
+        <f t="shared" ref="AK5:AK24" si="9">IFERROR(AP5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AL5" s="74" t="str">
-        <f t="shared" ref="AL5:AL24" si="8">IFERROR(AQ5/L5*30,"n.a.")</f>
+        <f t="shared" ref="AL5:AL24" si="10">IFERROR(AQ5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AM5" s="81" t="str">
@@ -1826,7 +1832,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN5" s="95" t="str">
-        <f>IFERROR(AR5/M5*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO5" s="83" t="e">
@@ -1850,23 +1856,23 @@
         <v/>
       </c>
       <c r="AT5" s="74" t="str">
-        <f t="shared" ref="AT5:AT24" si="9">IFERROR(AY5/J5*30,"n.a.")</f>
+        <f t="shared" ref="AT5:AT24" si="11">IFERROR(AY5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AU5" s="74" t="str">
-        <f t="shared" ref="AU5:AU24" si="10">IFERROR(AZ5/K5*30,"n.a.")</f>
+        <f t="shared" ref="AU5:AU24" si="12">IFERROR(AZ5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AV5" s="70" t="str">
-        <f t="shared" ref="AV5:AV24" si="11">IFERROR(BA5/L5*30,"n.a.")</f>
+        <f t="shared" ref="AV5:AV24" si="13">IFERROR(BA5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AW5" s="81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX5" s="95" t="str">
-        <f>IFERROR(BB5/M5*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY5" s="83" t="e">
@@ -1921,7 +1927,7 @@
         <v>#N/A</v>
       </c>
       <c r="P6" s="72" t="e">
-        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q6" s="94"/>
@@ -1937,7 +1943,7 @@
       <c r="AA6" s="94"/>
       <c r="AB6" s="94"/>
       <c r="AC6" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD6" s="80" t="str">
@@ -1957,7 +1963,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH6" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI6" s="129" t="str">
@@ -1965,15 +1971,15 @@
         <v/>
       </c>
       <c r="AJ6" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK6" s="77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL6" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM6" s="81" t="str">
@@ -1981,7 +1987,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN6" s="95" t="str">
-        <f>IFERROR(AR6/M6*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO6" s="83" t="e">
@@ -2005,23 +2011,23 @@
         <v/>
       </c>
       <c r="AT6" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU6" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV6" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU6" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV6" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW6" s="81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX6" s="95" t="str">
-        <f>IFERROR(BB6/M6*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY6" s="83" t="e">
@@ -2076,7 +2082,7 @@
         <v>#N/A</v>
       </c>
       <c r="P7" s="72" t="e">
-        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q7" s="94"/>
@@ -2092,7 +2098,7 @@
       <c r="AA7" s="94"/>
       <c r="AB7" s="94"/>
       <c r="AC7" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD7" s="80" t="str">
@@ -2112,7 +2118,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH7" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI7" s="129" t="str">
@@ -2120,15 +2126,15 @@
         <v/>
       </c>
       <c r="AJ7" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK7" s="77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL7" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM7" s="81" t="str">
@@ -2136,7 +2142,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN7" s="95" t="str">
-        <f>IFERROR(AR7/M7*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO7" s="83" t="e">
@@ -2160,23 +2166,23 @@
         <v/>
       </c>
       <c r="AT7" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU7" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV7" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU7" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV7" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW7" s="81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX7" s="95" t="str">
-        <f>IFERROR(BB7/M7*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY7" s="83" t="e">
@@ -2231,7 +2237,7 @@
         <v>#N/A</v>
       </c>
       <c r="P8" s="72" t="e">
-        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="94"/>
@@ -2247,7 +2253,7 @@
       <c r="AA8" s="94"/>
       <c r="AB8" s="94"/>
       <c r="AC8" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD8" s="80" t="str">
@@ -2267,7 +2273,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH8" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI8" s="129" t="str">
@@ -2275,15 +2281,15 @@
         <v/>
       </c>
       <c r="AJ8" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK8" s="77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL8" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM8" s="81" t="str">
@@ -2291,7 +2297,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN8" s="95" t="str">
-        <f>IFERROR(AR8/M8*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO8" s="83" t="e">
@@ -2315,23 +2321,23 @@
         <v/>
       </c>
       <c r="AT8" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU8" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV8" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU8" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV8" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW8" s="81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX8" s="95" t="str">
-        <f>IFERROR(BB8/M8*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY8" s="83" t="e">
@@ -2386,7 +2392,7 @@
         <v>#N/A</v>
       </c>
       <c r="P9" s="72" t="e">
-        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q9" s="94"/>
@@ -2402,7 +2408,7 @@
       <c r="AA9" s="94"/>
       <c r="AB9" s="94"/>
       <c r="AC9" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD9" s="80" t="str">
@@ -2422,7 +2428,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH9" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI9" s="129" t="str">
@@ -2430,15 +2436,15 @@
         <v/>
       </c>
       <c r="AJ9" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK9" s="77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL9" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM9" s="81" t="str">
@@ -2446,7 +2452,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN9" s="95" t="str">
-        <f>IFERROR(AR9/M9*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO9" s="83" t="e">
@@ -2470,23 +2476,23 @@
         <v/>
       </c>
       <c r="AT9" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU9" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV9" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU9" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV9" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW9" s="81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX9" s="95" t="str">
-        <f>IFERROR(BB9/M9*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY9" s="83" t="e">
@@ -2541,7 +2547,7 @@
         <v>#N/A</v>
       </c>
       <c r="P10" s="72" t="e">
-        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q10" s="94"/>
@@ -2557,7 +2563,7 @@
       <c r="AA10" s="94"/>
       <c r="AB10" s="94"/>
       <c r="AC10" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD10" s="80" t="str">
@@ -2577,7 +2583,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH10" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI10" s="129" t="str">
@@ -2585,15 +2591,15 @@
         <v/>
       </c>
       <c r="AJ10" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK10" s="77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL10" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM10" s="81" t="str">
@@ -2601,7 +2607,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN10" s="95" t="str">
-        <f>IFERROR(AR10/M10*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO10" s="83" t="e">
@@ -2625,23 +2631,23 @@
         <v/>
       </c>
       <c r="AT10" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU10" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV10" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU10" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV10" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW10" s="81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX10" s="95" t="str">
-        <f>IFERROR(BB10/M10*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY10" s="83" t="e">
@@ -2696,7 +2702,7 @@
         <v>#N/A</v>
       </c>
       <c r="P11" s="72" t="e">
-        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q11" s="94"/>
@@ -2712,7 +2718,7 @@
       <c r="AA11" s="94"/>
       <c r="AB11" s="94"/>
       <c r="AC11" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD11" s="80" t="str">
@@ -2732,7 +2738,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH11" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI11" s="129" t="str">
@@ -2740,15 +2746,15 @@
         <v/>
       </c>
       <c r="AJ11" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK11" s="77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL11" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM11" s="81" t="str">
@@ -2756,7 +2762,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN11" s="95" t="str">
-        <f>IFERROR(AR11/M11*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO11" s="83" t="e">
@@ -2780,23 +2786,23 @@
         <v/>
       </c>
       <c r="AT11" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU11" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV11" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU11" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV11" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW11" s="81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX11" s="95" t="str">
-        <f>IFERROR(BB11/M11*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY11" s="83" t="e">
@@ -2851,7 +2857,7 @@
         <v>#N/A</v>
       </c>
       <c r="P12" s="72" t="e">
-        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q12" s="94"/>
@@ -2867,7 +2873,7 @@
       <c r="AA12" s="94"/>
       <c r="AB12" s="94"/>
       <c r="AC12" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD12" s="80" t="str">
@@ -2887,7 +2893,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH12" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI12" s="129" t="str">
@@ -2895,15 +2901,15 @@
         <v/>
       </c>
       <c r="AJ12" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK12" s="77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL12" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM12" s="81" t="str">
@@ -2911,7 +2917,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN12" s="95" t="str">
-        <f>IFERROR(AR12/M12*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO12" s="83" t="e">
@@ -2935,23 +2941,23 @@
         <v/>
       </c>
       <c r="AT12" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU12" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV12" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU12" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV12" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW12" s="81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX12" s="95" t="str">
-        <f>IFERROR(BB12/M12*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY12" s="83" t="e">
@@ -3006,7 +3012,7 @@
         <v>#N/A</v>
       </c>
       <c r="P13" s="72" t="e">
-        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q13" s="94"/>
@@ -3022,7 +3028,7 @@
       <c r="AA13" s="94"/>
       <c r="AB13" s="94"/>
       <c r="AC13" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD13" s="80" t="str">
@@ -3042,7 +3048,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH13" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI13" s="129" t="str">
@@ -3050,15 +3056,15 @@
         <v/>
       </c>
       <c r="AJ13" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK13" s="77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL13" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM13" s="81" t="str">
@@ -3066,7 +3072,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN13" s="95" t="str">
-        <f>IFERROR(AR13/M13*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO13" s="83" t="e">
@@ -3090,23 +3096,23 @@
         <v/>
       </c>
       <c r="AT13" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU13" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV13" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU13" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV13" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW13" s="81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX13" s="95" t="str">
-        <f>IFERROR(BB13/M13*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY13" s="83" t="e">
@@ -3161,7 +3167,7 @@
         <v>#N/A</v>
       </c>
       <c r="P14" s="72" t="e">
-        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q14" s="94"/>
@@ -3177,7 +3183,7 @@
       <c r="AA14" s="94"/>
       <c r="AB14" s="94"/>
       <c r="AC14" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD14" s="80" t="str">
@@ -3197,7 +3203,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH14" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI14" s="129" t="str">
@@ -3205,15 +3211,15 @@
         <v/>
       </c>
       <c r="AJ14" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK14" s="77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL14" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM14" s="81" t="str">
@@ -3221,7 +3227,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN14" s="95" t="str">
-        <f>IFERROR(AR14/M14*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO14" s="83" t="e">
@@ -3245,23 +3251,23 @@
         <v/>
       </c>
       <c r="AT14" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU14" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV14" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU14" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV14" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW14" s="81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX14" s="95" t="str">
-        <f>IFERROR(BB14/M14*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY14" s="83" t="e">
@@ -3316,7 +3322,7 @@
         <v>#N/A</v>
       </c>
       <c r="P15" s="72" t="e">
-        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="94"/>
@@ -3332,27 +3338,27 @@
       <c r="AA15" s="94"/>
       <c r="AB15" s="94"/>
       <c r="AC15" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD15" s="80" t="str">
-        <f t="shared" ref="AD15:AD23" si="12">IFERROR(IF(AJ15="n.a.", -AT15, IF(AT15="n.a.", AJ15, AJ15-AT15)),"n.a.")</f>
+        <f t="shared" ref="AD15:AD23" si="14">IFERROR(IF(AJ15="n.a.", -AT15, IF(AT15="n.a.", AJ15, AJ15-AT15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AE15" s="80" t="str">
-        <f t="shared" ref="AE15:AE23" si="13">IFERROR(IF(AK15="n.a.", -AU15, IF(AU15="n.a.", AK15, AK15-AU15)),"n.a.")</f>
+        <f t="shared" ref="AE15:AE23" si="15">IFERROR(IF(AK15="n.a.", -AU15, IF(AU15="n.a.", AK15, AK15-AU15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AF15" s="96" t="str">
-        <f t="shared" ref="AF15:AF23" si="14">IFERROR(IF(AL15="n.a.", -AV15, IF(AV15="n.a.", AL15, AL15-AV15)),"n.a.")</f>
+        <f t="shared" ref="AF15:AF23" si="16">IFERROR(IF(AL15="n.a.", -AV15, IF(AV15="n.a.", AL15, AL15-AV15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AG15" s="82" t="str">
-        <f t="shared" ref="AG15:AG23" si="15">IFERROR(AC15-AF15, "n.a.")</f>
+        <f t="shared" ref="AG15:AG23" si="17">IFERROR(AC15-AF15, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AH15" s="115" t="str">
-        <f t="shared" ref="AH15:AH23" si="16">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
+        <f t="shared" ref="AH15:AH23" si="18">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AI15" s="129" t="str">
@@ -3360,23 +3366,23 @@
         <v/>
       </c>
       <c r="AJ15" s="74" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK15" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL15" s="74" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK15" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL15" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM15" s="81" t="str">
-        <f t="shared" ref="AM15:AM23" si="17">IFERROR(-AL15+AI15,"n.a.")</f>
+        <f t="shared" ref="AM15:AM23" si="19">IFERROR(-AL15+AI15,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AN15" s="95" t="str">
-        <f>IFERROR(AR15/M15*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO15" s="83" t="e">
@@ -3400,23 +3406,23 @@
         <v/>
       </c>
       <c r="AT15" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU15" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV15" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU15" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV15" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW15" s="81" t="str">
-        <f t="shared" ref="AW15:AW23" si="18">IFERROR(-AS15+AV15, "n.a.")</f>
+        <f t="shared" ref="AW15:AW23" si="20">IFERROR(-AS15+AV15, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX15" s="95" t="str">
-        <f>IFERROR(BB15/M15*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY15" s="83" t="e">
@@ -3471,7 +3477,7 @@
         <v>#N/A</v>
       </c>
       <c r="P16" s="72" t="e">
-        <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q16" s="94"/>
@@ -3487,27 +3493,27 @@
       <c r="AA16" s="94"/>
       <c r="AB16" s="94"/>
       <c r="AC16" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD16" s="80" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE16" s="80" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF16" s="96" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG16" s="82" t="str">
+      <c r="AE16" s="80" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF16" s="96" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG16" s="82" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH16" s="115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI16" s="129" t="str">
@@ -3515,23 +3521,23 @@
         <v/>
       </c>
       <c r="AJ16" s="74" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK16" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL16" s="74" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK16" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL16" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM16" s="81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN16" s="95" t="str">
-        <f>IFERROR(AR16/M16*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO16" s="83" t="e">
@@ -3555,23 +3561,23 @@
         <v/>
       </c>
       <c r="AT16" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU16" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV16" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU16" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV16" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW16" s="81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX16" s="95" t="str">
-        <f>IFERROR(BB16/M16*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY16" s="83" t="e">
@@ -3626,7 +3632,7 @@
         <v>#N/A</v>
       </c>
       <c r="P17" s="72" t="e">
-        <f>VLOOKUP($B17,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="94"/>
@@ -3642,27 +3648,27 @@
       <c r="AA17" s="94"/>
       <c r="AB17" s="94"/>
       <c r="AC17" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD17" s="80" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE17" s="80" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF17" s="96" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG17" s="82" t="str">
+      <c r="AE17" s="80" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF17" s="96" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG17" s="82" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH17" s="115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI17" s="129" t="str">
@@ -3670,23 +3676,23 @@
         <v/>
       </c>
       <c r="AJ17" s="74" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK17" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL17" s="74" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK17" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL17" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM17" s="81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN17" s="95" t="str">
-        <f>IFERROR(AR17/M17*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO17" s="83" t="e">
@@ -3710,23 +3716,23 @@
         <v/>
       </c>
       <c r="AT17" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU17" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV17" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU17" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV17" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW17" s="81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX17" s="95" t="str">
-        <f>IFERROR(BB17/M17*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY17" s="83" t="e">
@@ -3781,7 +3787,7 @@
         <v>#N/A</v>
       </c>
       <c r="P18" s="72" t="e">
-        <f>VLOOKUP($B18,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q18" s="94"/>
@@ -3797,27 +3803,27 @@
       <c r="AA18" s="94"/>
       <c r="AB18" s="94"/>
       <c r="AC18" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD18" s="80" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE18" s="80" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF18" s="96" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG18" s="82" t="str">
+      <c r="AE18" s="80" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF18" s="96" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG18" s="82" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH18" s="115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI18" s="129" t="str">
@@ -3825,23 +3831,23 @@
         <v/>
       </c>
       <c r="AJ18" s="74" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK18" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL18" s="74" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK18" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL18" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM18" s="81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN18" s="95" t="str">
-        <f>IFERROR(AR18/M18*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO18" s="83" t="e">
@@ -3865,23 +3871,23 @@
         <v/>
       </c>
       <c r="AT18" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU18" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV18" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU18" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV18" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW18" s="81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX18" s="95" t="str">
-        <f>IFERROR(BB18/M18*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY18" s="83" t="e">
@@ -3936,7 +3942,7 @@
         <v>#N/A</v>
       </c>
       <c r="P19" s="72" t="e">
-        <f>VLOOKUP($B19,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q19" s="94"/>
@@ -3952,27 +3958,27 @@
       <c r="AA19" s="94"/>
       <c r="AB19" s="94"/>
       <c r="AC19" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD19" s="80" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE19" s="80" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF19" s="96" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG19" s="82" t="str">
+      <c r="AE19" s="80" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF19" s="96" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG19" s="82" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH19" s="115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI19" s="129" t="str">
@@ -3980,23 +3986,23 @@
         <v/>
       </c>
       <c r="AJ19" s="74" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK19" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL19" s="74" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK19" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL19" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM19" s="81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN19" s="95" t="str">
-        <f>IFERROR(AR19/M19*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO19" s="83" t="e">
@@ -4020,23 +4026,23 @@
         <v/>
       </c>
       <c r="AT19" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU19" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV19" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU19" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV19" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW19" s="81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX19" s="95" t="str">
-        <f>IFERROR(BB19/M19*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY19" s="83" t="e">
@@ -4091,7 +4097,7 @@
         <v>#N/A</v>
       </c>
       <c r="P20" s="72" t="e">
-        <f>VLOOKUP($B20,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="94"/>
@@ -4107,27 +4113,27 @@
       <c r="AA20" s="94"/>
       <c r="AB20" s="94"/>
       <c r="AC20" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD20" s="80" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE20" s="80" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF20" s="96" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG20" s="82" t="str">
+      <c r="AE20" s="80" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF20" s="96" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG20" s="82" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH20" s="115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI20" s="129" t="str">
@@ -4135,23 +4141,23 @@
         <v/>
       </c>
       <c r="AJ20" s="74" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK20" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL20" s="74" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK20" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL20" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM20" s="81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN20" s="95" t="str">
-        <f>IFERROR(AR20/M20*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO20" s="83" t="e">
@@ -4175,23 +4181,23 @@
         <v/>
       </c>
       <c r="AT20" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU20" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV20" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU20" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV20" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW20" s="81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX20" s="95" t="str">
-        <f>IFERROR(BB20/M20*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY20" s="83" t="e">
@@ -4246,7 +4252,7 @@
         <v>#N/A</v>
       </c>
       <c r="P21" s="72" t="e">
-        <f>VLOOKUP($B21,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q21" s="94"/>
@@ -4262,27 +4268,27 @@
       <c r="AA21" s="94"/>
       <c r="AB21" s="94"/>
       <c r="AC21" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD21" s="80" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE21" s="80" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF21" s="96" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG21" s="82" t="str">
+      <c r="AE21" s="80" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF21" s="96" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG21" s="82" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH21" s="115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI21" s="129" t="str">
@@ -4290,23 +4296,23 @@
         <v/>
       </c>
       <c r="AJ21" s="74" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK21" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL21" s="74" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK21" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL21" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM21" s="81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN21" s="95" t="str">
-        <f>IFERROR(AR21/M21*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO21" s="83" t="e">
@@ -4330,23 +4336,23 @@
         <v/>
       </c>
       <c r="AT21" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU21" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV21" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU21" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV21" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW21" s="81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX21" s="95" t="str">
-        <f>IFERROR(BB21/M21*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY21" s="83" t="e">
@@ -4401,7 +4407,7 @@
         <v>#N/A</v>
       </c>
       <c r="P22" s="72" t="e">
-        <f>VLOOKUP($B22,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q22" s="94"/>
@@ -4417,27 +4423,27 @@
       <c r="AA22" s="94"/>
       <c r="AB22" s="94"/>
       <c r="AC22" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD22" s="80" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE22" s="80" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF22" s="96" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG22" s="82" t="str">
+      <c r="AE22" s="80" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF22" s="96" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG22" s="82" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH22" s="115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI22" s="129" t="str">
@@ -4445,23 +4451,23 @@
         <v/>
       </c>
       <c r="AJ22" s="74" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL22" s="74" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK22" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL22" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM22" s="81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN22" s="95" t="str">
-        <f>IFERROR(AR22/M22*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO22" s="83" t="e">
@@ -4485,23 +4491,23 @@
         <v/>
       </c>
       <c r="AT22" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU22" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV22" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU22" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV22" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW22" s="81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX22" s="95" t="str">
-        <f>IFERROR(BB22/M22*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY22" s="83" t="e">
@@ -4556,7 +4562,7 @@
         <v>#N/A</v>
       </c>
       <c r="P23" s="72" t="e">
-        <f>VLOOKUP($B23,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q23" s="94"/>
@@ -4572,27 +4578,27 @@
       <c r="AA23" s="94"/>
       <c r="AB23" s="94"/>
       <c r="AC23" s="73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD23" s="80" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE23" s="80" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF23" s="96" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG23" s="82" t="str">
+      <c r="AE23" s="80" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF23" s="96" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG23" s="82" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH23" s="115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI23" s="129" t="str">
@@ -4600,23 +4606,23 @@
         <v/>
       </c>
       <c r="AJ23" s="74" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK23" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL23" s="74" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK23" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL23" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM23" s="81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN23" s="95" t="str">
-        <f>IFERROR(AR23/M23*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO23" s="83" t="e">
@@ -4640,23 +4646,23 @@
         <v/>
       </c>
       <c r="AT23" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU23" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV23" s="70" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU23" s="74" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV23" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW23" s="81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX23" s="95" t="str">
-        <f>IFERROR(BB23/M23*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY23" s="83" t="e">
@@ -4676,7 +4682,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:54" s="143" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" s="150" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="78"/>
       <c r="B24" s="86"/>
       <c r="C24" s="89"/>
@@ -4711,7 +4717,7 @@
         <v>#N/A</v>
       </c>
       <c r="P24" s="83" t="e">
-        <f>VLOOKUP($B24,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q24" s="108"/>
@@ -4726,8 +4732,8 @@
       <c r="Z24" s="108"/>
       <c r="AA24" s="108"/>
       <c r="AB24" s="108"/>
-      <c r="AC24" s="73" t="str">
-        <f t="shared" si="4"/>
+      <c r="AC24" s="79" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD24" s="80" t="str">
@@ -4747,23 +4753,23 @@
         <v>n.a.</v>
       </c>
       <c r="AH24" s="116" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI24" s="129" t="str">
         <f>IFERROR(VLOOKUP($B24,SG!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AJ24" s="74" t="str">
-        <f t="shared" si="6"/>
+      <c r="AJ24" s="80" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AK24" s="77" t="str">
-        <f t="shared" si="7"/>
+      <c r="AK24" s="148" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AL24" s="74" t="str">
-        <f t="shared" si="8"/>
+      <c r="AL24" s="80" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM24" s="81" t="str">
@@ -4771,7 +4777,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN24" s="96" t="str">
-        <f>IFERROR(AR24/M24*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO24" s="83" t="e">
@@ -4794,24 +4800,24 @@
         <f>IFERROR(VLOOKUP($B24,SG!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AT24" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU24" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV24" s="70" t="str">
+      <c r="AT24" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU24" s="80" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV24" s="149" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW24" s="81" t="str">
-        <f t="shared" ref="AW24" si="19">IFERROR(-AS24+AV24, "n.a.")</f>
+        <f t="shared" ref="AW24" si="21">IFERROR(-AS24+AV24, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX24" s="96" t="str">
-        <f>IFERROR(BB24/M24*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY24" s="83" t="e">
@@ -8101,54 +8107,54 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144" t="s">
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="144" t="s">
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="144" t="s">
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="148" t="s">
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="144" t="s">
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="144" t="s">
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="146"/>
-      <c r="AH2" s="147" t="s">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="145"/>
+      <c r="AI2" s="144"/>
       <c r="AJ2" s="119"/>
     </row>
     <row r="3" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">

--- a/SG/wc_template_SG_v3.xlsx
+++ b/SG/wc_template_SG_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\SG\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EA80D2-3EA2-4483-A37F-C68B937B04EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90DA1C4-BB9C-48A6-A2CF-46FEC360E7EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>L90D Average Monthly COGS (US$)</t>
+  </si>
+  <si>
+    <t>L90D</t>
   </si>
 </sst>
 </file>
@@ -922,6 +925,15 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -932,15 +944,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1593,15 +1596,15 @@
       <c r="H4" s="84"/>
       <c r="I4" s="84"/>
       <c r="J4" s="72" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K4" s="72" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="72" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="72" t="e">
@@ -1748,15 +1751,15 @@
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="72" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K5" s="72" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L5" s="72" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M5" s="72" t="e">
@@ -1903,15 +1906,15 @@
       <c r="H6" s="84"/>
       <c r="I6" s="84"/>
       <c r="J6" s="72" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K6" s="72" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L6" s="72" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="72" t="e">
@@ -2058,15 +2061,15 @@
       <c r="H7" s="84"/>
       <c r="I7" s="84"/>
       <c r="J7" s="72" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K7" s="72" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L7" s="72" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M7" s="72" t="e">
@@ -2213,15 +2216,15 @@
       <c r="H8" s="84"/>
       <c r="I8" s="84"/>
       <c r="J8" s="72" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K8" s="72" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L8" s="72" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M8" s="72" t="e">
@@ -2368,15 +2371,15 @@
       <c r="H9" s="84"/>
       <c r="I9" s="84"/>
       <c r="J9" s="72" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K9" s="72" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="72" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M9" s="72" t="e">
@@ -2523,15 +2526,15 @@
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
       <c r="J10" s="72" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K10" s="72" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L10" s="72" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M10" s="72" t="e">
@@ -2678,15 +2681,15 @@
       <c r="H11" s="84"/>
       <c r="I11" s="84"/>
       <c r="J11" s="72" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K11" s="72" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L11" s="72" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M11" s="72" t="e">
@@ -2833,15 +2836,15 @@
       <c r="H12" s="84"/>
       <c r="I12" s="84"/>
       <c r="J12" s="72" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K12" s="72" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L12" s="72" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M12" s="72" t="e">
@@ -2988,15 +2991,15 @@
       <c r="H13" s="84"/>
       <c r="I13" s="84"/>
       <c r="J13" s="72" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K13" s="72" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L13" s="72" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M13" s="72" t="e">
@@ -3143,15 +3146,15 @@
       <c r="H14" s="84"/>
       <c r="I14" s="84"/>
       <c r="J14" s="72" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K14" s="72" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L14" s="72" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="72" t="e">
@@ -3298,15 +3301,15 @@
       <c r="H15" s="84"/>
       <c r="I15" s="84"/>
       <c r="J15" s="72" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K15" s="72" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L15" s="72" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M15" s="72" t="e">
@@ -3453,15 +3456,15 @@
       <c r="H16" s="84"/>
       <c r="I16" s="84"/>
       <c r="J16" s="72" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K16" s="72" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L16" s="72" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M16" s="72" t="e">
@@ -3608,15 +3611,15 @@
       <c r="H17" s="84"/>
       <c r="I17" s="84"/>
       <c r="J17" s="72" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K17" s="72" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L17" s="72" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M17" s="72" t="e">
@@ -3763,15 +3766,15 @@
       <c r="H18" s="84"/>
       <c r="I18" s="84"/>
       <c r="J18" s="72" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K18" s="72" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L18" s="72" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M18" s="72" t="e">
@@ -3918,15 +3921,15 @@
       <c r="H19" s="84"/>
       <c r="I19" s="84"/>
       <c r="J19" s="72" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K19" s="72" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L19" s="72" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M19" s="72" t="e">
@@ -4073,15 +4076,15 @@
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
       <c r="J20" s="72" t="e">
-        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K20" s="72" t="e">
-        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L20" s="72" t="e">
-        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M20" s="72" t="e">
@@ -4228,15 +4231,15 @@
       <c r="H21" s="84"/>
       <c r="I21" s="84"/>
       <c r="J21" s="72" t="e">
-        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K21" s="72" t="e">
-        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L21" s="72" t="e">
-        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M21" s="72" t="e">
@@ -4383,15 +4386,15 @@
       <c r="H22" s="84"/>
       <c r="I22" s="84"/>
       <c r="J22" s="72" t="e">
-        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K22" s="72" t="e">
-        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L22" s="72" t="e">
-        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M22" s="72" t="e">
@@ -4538,15 +4541,15 @@
       <c r="H23" s="84"/>
       <c r="I23" s="84"/>
       <c r="J23" s="72" t="e">
-        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K23" s="72" t="e">
-        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L23" s="72" t="e">
-        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M23" s="72" t="e">
@@ -4682,7 +4685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:54" s="150" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" s="145" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="78"/>
       <c r="B24" s="86"/>
       <c r="C24" s="89"/>
@@ -4693,15 +4696,15 @@
       <c r="H24" s="84"/>
       <c r="I24" s="84"/>
       <c r="J24" s="83" t="e">
-        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K24" s="83" t="e">
-        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L24" s="83" t="e">
-        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M24" s="83" t="e">
@@ -4764,7 +4767,7 @@
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AK24" s="148" t="str">
+      <c r="AK24" s="143" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
@@ -4808,7 +4811,7 @@
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AV24" s="149" t="str">
+      <c r="AV24" s="144" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
@@ -8107,54 +8110,54 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="143" t="s">
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="143" t="s">
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="143" t="s">
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="147" t="s">
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="143" t="s">
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="143" t="s">
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="145"/>
-      <c r="AH2" s="146" t="s">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="148"/>
+      <c r="AH2" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="144"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="119"/>
     </row>
     <row r="3" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -8531,7 +8534,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F2" s="100" t="s">
         <v>52</v>
